--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_MAR_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_MAR_2020.xlsx
@@ -1483,10 +1483,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-98.6206</v>
+        <v>-97.341</v>
       </c>
       <c r="B2" t="n">
-        <v>-97.4638</v>
+        <v>-97.3138</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26.6404</v>
+        <v>27.7836</v>
       </c>
       <c r="B3" t="n">
-        <v>28.3286</v>
+        <v>27.8079</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-95.4316</v>
+        <v>-96.7095</v>
       </c>
       <c r="B4" t="n">
-        <v>-96.7676</v>
+        <v>-96.7367</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29.5054</v>
+        <v>28.3675</v>
       </c>
       <c r="B5" t="n">
-        <v>27.8221</v>
+        <v>28.3433</v>
       </c>
       <c r="C5" t="s">
         <v>124</v>

--- a/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_MAR_2020.xlsx
+++ b/CDMO_Automation/00_Annual_Update/Updated_reserve_var_sheets/Reserve_Level_Plotting_Variables_MAR_2020.xlsx
@@ -1483,10 +1483,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-97.341</v>
+        <v>-97.4535</v>
       </c>
       <c r="B2" t="n">
-        <v>-97.3138</v>
+        <v>-97.3705</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>27.7836</v>
+        <v>27.692</v>
       </c>
       <c r="B3" t="n">
-        <v>27.8079</v>
+        <v>27.7659</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-96.7095</v>
+        <v>-96.5978</v>
       </c>
       <c r="B4" t="n">
-        <v>-96.7367</v>
+        <v>-96.6795</v>
       </c>
       <c r="C4" t="s">
         <v>124</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28.3675</v>
+        <v>28.4561</v>
       </c>
       <c r="B5" t="n">
-        <v>28.3433</v>
+        <v>28.3829</v>
       </c>
       <c r="C5" t="s">
         <v>124</v>
